--- a/data/trans_orig/P14C27-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C27-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9999442E-F3BB-420E-84B1-B5449333CF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B35CEE09-79DA-4949-B48B-29E1D8D842F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1BE8AC13-0FBE-42CC-B277-935A2B0A1206}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7AD26C1C-4128-4FA2-8580-763A2955C5C5}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -143,10 +143,10 @@
     <t>31,17%</t>
   </si>
   <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
   </si>
   <si>
     <t>67,2%</t>
@@ -164,10 +164,10 @@
     <t>52,87%</t>
   </si>
   <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
   </si>
   <si>
     <t>20,74%</t>
@@ -179,7 +179,7 @@
     <t>15,95%</t>
   </si>
   <si>
-    <t>48,73%</t>
+    <t>48,99%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -188,157 +188,157 @@
     <t>64,01%</t>
   </si>
   <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
   </si>
   <si>
     <t>65,44%</t>
   </si>
   <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
   </si>
   <si>
     <t>64,98%</t>
   </si>
   <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
   </si>
   <si>
     <t>29,17%</t>
   </si>
   <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
   </si>
   <si>
     <t>27,02%</t>
   </si>
   <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
   </si>
   <si>
     <t>27,71%</t>
   </si>
   <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
   </si>
   <si>
     <t>6,82%</t>
   </si>
   <si>
-    <t>23,75%</t>
+    <t>20,95%</t>
   </si>
   <si>
     <t>7,54%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
   </si>
   <si>
     <t>7,31%</t>
   </si>
   <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
   </si>
   <si>
     <t>60,95%</t>
   </si>
   <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
   </si>
   <si>
     <t>59,68%</t>
   </si>
   <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
   </si>
   <si>
     <t>60,05%</t>
   </si>
   <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
   </si>
   <si>
     <t>32,9%</t>
   </si>
   <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
   </si>
   <si>
     <t>29,0%</t>
   </si>
   <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
   </si>
   <si>
     <t>30,14%</t>
   </si>
   <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
   </si>
   <si>
     <t>6,15%</t>
   </si>
   <si>
-    <t>21,61%</t>
+    <t>19,36%</t>
   </si>
   <si>
     <t>11,32%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
   </si>
   <si>
     <t>9,81%</t>
   </si>
   <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -753,7 +753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441FC5B0-DC60-419A-8DF9-0E5411859459}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08015092-A168-400E-BBF6-F0F54415D0C3}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C27-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C27-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B35CEE09-79DA-4949-B48B-29E1D8D842F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7511FAF5-48CA-4023-9AA2-E4DADEFF7CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7AD26C1C-4128-4FA2-8580-763A2955C5C5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9B56B38A-FCAC-4B7F-8C36-9A0B7A98D356}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="102">
-  <si>
-    <t>Población según el tiempo de diagnóstico del cataratas en 2015 (Tasa respuesta: 1,54%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="101">
+  <si>
+    <t>Población según el tiempo de diagnóstico del cataratas en 2016 (Tasa respuesta: 1,54%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -134,19 +134,19 @@
     <t>30,69%</t>
   </si>
   <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
   </si>
   <si>
     <t>31,17%</t>
   </si>
   <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
   </si>
   <si>
     <t>67,2%</t>
@@ -155,31 +155,31 @@
     <t>48,57%</t>
   </si>
   <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
   </si>
   <si>
     <t>52,87%</t>
   </si>
   <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
   </si>
   <si>
     <t>20,74%</t>
   </si>
   <si>
-    <t>55,89%</t>
+    <t>55,96%</t>
   </si>
   <si>
     <t>15,95%</t>
   </si>
   <si>
-    <t>48,99%</t>
+    <t>50,03%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -188,157 +188,154 @@
     <t>64,01%</t>
   </si>
   <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
   </si>
   <si>
     <t>65,44%</t>
   </si>
   <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
+    <t>51,55%</t>
   </si>
   <si>
     <t>64,98%</t>
   </si>
   <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
   </si>
   <si>
     <t>29,17%</t>
   </si>
   <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
   </si>
   <si>
     <t>27,02%</t>
   </si>
   <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
   </si>
   <si>
     <t>27,71%</t>
   </si>
   <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
   </si>
   <si>
     <t>6,82%</t>
   </si>
   <si>
-    <t>20,95%</t>
+    <t>22,2%</t>
   </si>
   <si>
     <t>7,54%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
   </si>
   <si>
     <t>7,31%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
   </si>
   <si>
     <t>60,95%</t>
   </si>
   <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
   </si>
   <si>
     <t>59,68%</t>
   </si>
   <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
   </si>
   <si>
     <t>60,05%</t>
   </si>
   <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
   </si>
   <si>
     <t>32,9%</t>
   </si>
   <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
   </si>
   <si>
     <t>29,0%</t>
   </si>
   <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
   </si>
   <si>
     <t>30,14%</t>
   </si>
   <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
   </si>
   <si>
     <t>6,15%</t>
   </si>
   <si>
-    <t>19,36%</t>
+    <t>18,36%</t>
   </si>
   <si>
     <t>11,32%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
   </si>
   <si>
     <t>9,81%</t>
   </si>
   <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -753,7 +750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08015092-A168-400E-BBF6-F0F54415D0C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845B272A-2249-4796-9E9E-4753983A0612}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1880,7 +1877,7 @@
         <v>53</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="M24" s="7">
         <v>54</v>
@@ -1889,13 +1886,13 @@
         <v>58156</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1910,13 +1907,13 @@
         <v>8388</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -1925,13 +1922,13 @@
         <v>16416</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M25" s="7">
         <v>23</v>
@@ -1940,13 +1937,13 @@
         <v>24804</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -1961,13 +1958,13 @@
         <v>1961</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -1976,13 +1973,13 @@
         <v>4581</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -1991,13 +1988,13 @@
         <v>6542</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2065,13 +2062,13 @@
         <v>19429</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H28" s="7">
         <v>40</v>
@@ -2080,13 +2077,13 @@
         <v>46018</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M28" s="7">
         <v>61</v>
@@ -2095,13 +2092,13 @@
         <v>65447</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2116,13 +2113,13 @@
         <v>10489</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H29" s="7">
         <v>19</v>
@@ -2131,13 +2128,13 @@
         <v>22363</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M29" s="7">
         <v>30</v>
@@ -2146,13 +2143,13 @@
         <v>32853</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,13 +2164,13 @@
         <v>1961</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H30" s="7">
         <v>8</v>
@@ -2182,13 +2179,13 @@
         <v>8727</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M30" s="7">
         <v>10</v>
@@ -2197,13 +2194,13 @@
         <v>10688</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2259,7 +2256,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
